--- a/数据整理/stocks/港股/00696-中国民航信息网络.xlsx
+++ b/数据整理/stocks/港股/00696-中国民航信息网络.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +451,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -575,56 +627,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/数据整理/stocks/港股/00696-中国民航信息网络.xlsx
+++ b/数据整理/stocks/港股/00696-中国民航信息网络.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -498,6 +515,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安香港精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00696-中国民航信息网络.xlsx
+++ b/数据整理/stocks/港股/00696-中国民航信息网络.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -515,6 +532,744 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0197</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安香港精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富创新活力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013369</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富自主核心科技一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013370</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富自主核心科技一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012111</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华安颐混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票（QDII）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014837</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富创新活力混合D</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012112</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华安颐混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>016742</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011072</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014836</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富创新活力混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -608,7 +1363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
